--- a/cam8_validation.xlsx
+++ b/cam8_validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C01052-847E-4667-832B-33DDAD5CD5F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF19D1D9-92AB-46C7-8388-2B7FAA6C52BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23674" yWindow="5134" windowWidth="24686" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21703" yWindow="1431" windowWidth="7774" windowHeight="13218" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -357,13 +357,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>891.97500000000002</v>
+        <v>901.98400000000004</v>
       </c>
       <c r="B1" s="1">
-        <v>1013.104</v>
+        <v>1013.447</v>
       </c>
       <c r="C1" s="1">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,268 +372,268 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>916.11199999999997</v>
+        <v>924.19200000000001</v>
       </c>
       <c r="B2" s="1">
-        <v>1786.6320000000001</v>
+        <v>1818.239</v>
       </c>
       <c r="C2" s="1">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-16.07</v>
+        <v>-15.92</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>910.46299999999997</v>
+        <v>918.96699999999998</v>
       </c>
       <c r="B3" s="1">
-        <v>1682.576</v>
+        <v>1719.954</v>
       </c>
       <c r="C3" s="1">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-14.03</v>
+        <v>-14.1</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>905.43</v>
+        <v>914.11900000000003</v>
       </c>
       <c r="B4" s="1">
-        <v>1581.2809999999999</v>
+        <v>1615.731</v>
       </c>
       <c r="C4" s="1">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>-12</v>
+        <v>-12.07</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>901.53800000000001</v>
+        <v>910.56</v>
       </c>
       <c r="B5" s="1">
-        <v>1483.492</v>
+        <v>1529.827</v>
       </c>
       <c r="C5" s="1">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>-10</v>
+        <v>-9.9</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>898.04100000000005</v>
+        <v>907.54200000000003</v>
       </c>
       <c r="B6" s="1">
-        <v>1387.1020000000001</v>
+        <v>1437.145</v>
       </c>
       <c r="C6" s="1">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-7.97</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>895.64700000000005</v>
+        <v>905.12400000000002</v>
       </c>
       <c r="B7" s="1">
-        <v>1291.6569999999999</v>
+        <v>1339.53</v>
       </c>
       <c r="C7" s="1">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-5.97</v>
+        <v>-6</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>893.77700000000004</v>
+        <v>903.10199999999998</v>
       </c>
       <c r="B8" s="1">
-        <v>1197.3</v>
+        <v>1242.9839999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>-3.95</v>
+        <v>-4</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>892.61800000000005</v>
+        <v>901.75800000000004</v>
       </c>
       <c r="B9" s="1">
-        <v>1104.194</v>
+        <v>1148.2339999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-2</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>891.98099999999999</v>
+        <v>901.88499999999999</v>
       </c>
       <c r="B10" s="1">
-        <v>1009.96</v>
+        <v>1051.674</v>
       </c>
       <c r="C10" s="1">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>891.97400000000005</v>
+        <v>902.13599999999997</v>
       </c>
       <c r="B11" s="1">
-        <v>917.43</v>
+        <v>956.48099999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>892.73</v>
+        <v>903.36300000000006</v>
       </c>
       <c r="B12" s="1">
-        <v>824.63499999999999</v>
+        <v>862.38499999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>893.96100000000001</v>
+        <v>905.053</v>
       </c>
       <c r="B13" s="1">
-        <v>729.84500000000003</v>
+        <v>766.97</v>
       </c>
       <c r="C13" s="1">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>6.05</v>
+        <v>6.03</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>896.00400000000002</v>
+        <v>907.755</v>
       </c>
       <c r="B14" s="1">
-        <v>636.09400000000005</v>
+        <v>672.42100000000005</v>
       </c>
       <c r="C14" s="1">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>8.0299999999999994</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>898.88400000000001</v>
+        <v>911.096</v>
       </c>
       <c r="B15" s="1">
-        <v>540.971</v>
+        <v>575.94299999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>10.050000000000001</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>902.33900000000006</v>
+        <v>915.149</v>
       </c>
       <c r="B16" s="1">
-        <v>444.76400000000001</v>
+        <v>478.11700000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>906.24800000000005</v>
+        <v>919.85299999999995</v>
       </c>
       <c r="B17" s="1">
-        <v>346.02100000000002</v>
+        <v>380.46499999999997</v>
       </c>
       <c r="C17" s="1">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>14.05</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>910.69299999999998</v>
+        <v>925.41899999999998</v>
       </c>
       <c r="B18" s="1">
-        <v>248.423</v>
+        <v>279.89100000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>16.02</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>874.05200000000002</v>
+        <v>883.83399999999995</v>
       </c>
       <c r="B19" s="1">
-        <v>1013.294</v>
+        <v>1013.184</v>
       </c>
       <c r="C19" s="1">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -642,28 +642,28 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>897.46100000000001</v>
+        <v>903.88800000000003</v>
       </c>
       <c r="B20" s="1">
-        <v>1784.971</v>
+        <v>1791.425</v>
       </c>
       <c r="C20" s="1">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="D20" s="1">
-        <v>-16.07</v>
+        <v>-15.9</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>891.98699999999997</v>
+        <v>899.08600000000001</v>
       </c>
       <c r="B21" s="1">
-        <v>1681.3</v>
+        <v>1696.2660000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="D21" s="1">
         <v>-14.03</v>
@@ -672,58 +672,58 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>887.11400000000003</v>
+        <v>894.79100000000005</v>
       </c>
       <c r="B22" s="1">
-        <v>1581.578</v>
+        <v>1595.3130000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="D22" s="1">
-        <v>-12</v>
+        <v>-12.03</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>883.33900000000006</v>
+        <v>891.18600000000004</v>
       </c>
       <c r="B23" s="1">
-        <v>1482.7550000000001</v>
+        <v>1496.357</v>
       </c>
       <c r="C23" s="1">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="D23" s="1">
-        <v>-10</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>880</v>
+        <v>888.04399999999998</v>
       </c>
       <c r="B24" s="1">
-        <v>1386.481</v>
+        <v>1397.789</v>
       </c>
       <c r="C24" s="1">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="D24" s="1">
-        <v>-7.95</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>877.66200000000003</v>
+        <v>885.95100000000002</v>
       </c>
       <c r="B25" s="1">
-        <v>1292.28</v>
+        <v>1300.4839999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="D25" s="1">
         <v>-6</v>
@@ -732,103 +732,103 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>875.76300000000003</v>
+        <v>884.51199999999994</v>
       </c>
       <c r="B26" s="1">
-        <v>1197.086</v>
+        <v>1204.845</v>
       </c>
       <c r="C26" s="1">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="D26" s="1">
-        <v>-3.95</v>
+        <v>-4</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>874.60299999999995</v>
+        <v>883.39800000000002</v>
       </c>
       <c r="B27" s="1">
-        <v>1104.18</v>
+        <v>1109.789</v>
       </c>
       <c r="C27" s="1">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="D27" s="1">
-        <v>-2</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>874</v>
+        <v>883.83600000000001</v>
       </c>
       <c r="B28" s="1">
-        <v>1010.053</v>
+        <v>1013.756</v>
       </c>
       <c r="C28" s="1">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>874</v>
+        <v>884.11199999999997</v>
       </c>
       <c r="B29" s="1">
-        <v>917.40599999999995</v>
+        <v>920.11699999999996</v>
       </c>
       <c r="C29" s="1">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="D29" s="1">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>874.673</v>
+        <v>885.8</v>
       </c>
       <c r="B30" s="1">
-        <v>824.13300000000004</v>
+        <v>824.61800000000005</v>
       </c>
       <c r="C30" s="1">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="D30" s="1">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>875.94799999999998</v>
+        <v>887.89400000000001</v>
       </c>
       <c r="B31" s="1">
-        <v>730.21299999999997</v>
+        <v>729.70600000000002</v>
       </c>
       <c r="C31" s="1">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="D31" s="1">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>877.92899999999997</v>
+        <v>890.74599999999998</v>
       </c>
       <c r="B32" s="1">
-        <v>636.83500000000004</v>
+        <v>633.74099999999999</v>
       </c>
       <c r="C32" s="1">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="D32" s="1">
         <v>8.0299999999999994</v>
@@ -837,73 +837,73 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>880.798</v>
+        <v>894.13599999999997</v>
       </c>
       <c r="B33" s="1">
-        <v>541.35400000000004</v>
+        <v>538.60199999999998</v>
       </c>
       <c r="C33" s="1">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="D33" s="1">
-        <v>10.050000000000001</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>884.07799999999997</v>
+        <v>898.46799999999996</v>
       </c>
       <c r="B34" s="1">
-        <v>445.07900000000001</v>
+        <v>441.154</v>
       </c>
       <c r="C34" s="1">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="D34" s="1">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>887.78700000000003</v>
+        <v>903.37599999999998</v>
       </c>
       <c r="B35" s="1">
-        <v>346.53800000000001</v>
+        <v>342.02699999999999</v>
       </c>
       <c r="C35" s="1">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="D35" s="1">
-        <v>14.05</v>
+        <v>14.03</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>892.10199999999998</v>
+        <v>908.96500000000003</v>
       </c>
       <c r="B36" s="1">
-        <v>249.14400000000001</v>
+        <v>243.011</v>
       </c>
       <c r="C36" s="1">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="D36" s="1">
-        <v>16.02</v>
+        <v>15.97</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>857.38300000000004</v>
+        <v>866.81600000000003</v>
       </c>
       <c r="B37" s="1">
-        <v>1013.07</v>
+        <v>1013.0170000000001</v>
       </c>
       <c r="C37" s="1">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -912,28 +912,28 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>880.173</v>
+        <v>886.32299999999998</v>
       </c>
       <c r="B38" s="1">
-        <v>1783.635</v>
+        <v>1791.116</v>
       </c>
       <c r="C38" s="1">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="D38" s="1">
-        <v>-16.07</v>
+        <v>-15.9</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>874.91300000000001</v>
+        <v>881.88199999999995</v>
       </c>
       <c r="B39" s="1">
-        <v>1680.317</v>
+        <v>1695.36</v>
       </c>
       <c r="C39" s="1">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="D39" s="1">
         <v>-14.03</v>
@@ -942,58 +942,58 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>870.05499999999995</v>
+        <v>877.57399999999996</v>
       </c>
       <c r="B40" s="1">
-        <v>1579.558</v>
+        <v>1595.5260000000001</v>
       </c>
       <c r="C40" s="1">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="D40" s="1">
-        <v>-12</v>
+        <v>-12.03</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>866.53599999999994</v>
+        <v>874.17200000000003</v>
       </c>
       <c r="B41" s="1">
-        <v>1482.559</v>
+        <v>1496.684</v>
       </c>
       <c r="C41" s="1">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="D41" s="1">
-        <v>-10</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>863.53499999999997</v>
+        <v>871.28300000000002</v>
       </c>
       <c r="B42" s="1">
-        <v>1385.86</v>
+        <v>1398.1590000000001</v>
       </c>
       <c r="C42" s="1">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="D42" s="1">
-        <v>-7.95</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>860.94100000000003</v>
+        <v>869.00900000000001</v>
       </c>
       <c r="B43" s="1">
-        <v>1292.6120000000001</v>
+        <v>1301.0219999999999</v>
       </c>
       <c r="C43" s="1">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="D43" s="1">
         <v>-6</v>
@@ -1002,28 +1002,28 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>859</v>
+        <v>867.66700000000003</v>
       </c>
       <c r="B44" s="1">
-        <v>1197.1379999999999</v>
+        <v>1205.636</v>
       </c>
       <c r="C44" s="1">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="D44" s="1">
-        <v>-3.95</v>
+        <v>-4.03</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>857.96199999999999</v>
+        <v>866.53300000000002</v>
       </c>
       <c r="B45" s="1">
-        <v>1104.1980000000001</v>
+        <v>1109.6679999999999</v>
       </c>
       <c r="C45" s="1">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="D45" s="1">
         <v>-2</v>
@@ -1032,73 +1032,73 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>857.40300000000002</v>
+        <v>866.80399999999997</v>
       </c>
       <c r="B46" s="1">
-        <v>1009.825</v>
+        <v>1014.322</v>
       </c>
       <c r="C46" s="1">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="D46" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>857.47699999999998</v>
+        <v>867.55399999999997</v>
       </c>
       <c r="B47" s="1">
-        <v>917.572</v>
+        <v>920.6</v>
       </c>
       <c r="C47" s="1">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="D47" s="1">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>858</v>
+        <v>869.02300000000002</v>
       </c>
       <c r="B48" s="1">
-        <v>824.77599999999995</v>
+        <v>825.75699999999995</v>
       </c>
       <c r="C48" s="1">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="D48" s="1">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>859.05200000000002</v>
+        <v>870.99199999999996</v>
       </c>
       <c r="B49" s="1">
-        <v>729.95299999999997</v>
+        <v>730.33299999999997</v>
       </c>
       <c r="C49" s="1">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="D49" s="1">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>861.16399999999999</v>
+        <v>873.78</v>
       </c>
       <c r="B50" s="1">
-        <v>636.19399999999996</v>
+        <v>634.82100000000003</v>
       </c>
       <c r="C50" s="1">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="D50" s="1">
         <v>8.0299999999999994</v>
@@ -1107,73 +1107,73 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>863.85900000000004</v>
+        <v>877.197</v>
       </c>
       <c r="B51" s="1">
-        <v>541.41600000000005</v>
+        <v>539.38599999999997</v>
       </c>
       <c r="C51" s="1">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="D51" s="1">
-        <v>10.07</v>
+        <v>10</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>866.995</v>
+        <v>881.38300000000004</v>
       </c>
       <c r="B52" s="1">
-        <v>447.10199999999998</v>
+        <v>441.82400000000001</v>
       </c>
       <c r="C52" s="1">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="D52" s="1">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>870.56899999999996</v>
+        <v>886.11800000000005</v>
       </c>
       <c r="B53" s="1">
-        <v>348.64699999999999</v>
+        <v>343.279</v>
       </c>
       <c r="C53" s="1">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="D53" s="1">
-        <v>14.03</v>
+        <v>14</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>874.83500000000004</v>
+        <v>891.45699999999999</v>
       </c>
       <c r="B54" s="1">
-        <v>249.529</v>
+        <v>243.05</v>
       </c>
       <c r="C54" s="1">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="D54" s="1">
-        <v>16.02</v>
+        <v>16</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>842</v>
+        <v>851.36699999999996</v>
       </c>
       <c r="B55" s="1">
-        <v>1012.979</v>
+        <v>1013.425</v>
       </c>
       <c r="C55" s="1">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1182,28 +1182,28 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>864.21900000000005</v>
+        <v>870.226</v>
       </c>
       <c r="B56" s="1">
-        <v>1783.8989999999999</v>
+        <v>1790.961</v>
       </c>
       <c r="C56" s="1">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="D56" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>859</v>
+        <v>865.72199999999998</v>
       </c>
       <c r="B57" s="1">
-        <v>1680.91</v>
+        <v>1695.423</v>
       </c>
       <c r="C57" s="1">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="D57" s="1">
         <v>-14.03</v>
@@ -1212,88 +1212,88 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>854.56200000000001</v>
+        <v>861.70299999999997</v>
       </c>
       <c r="B58" s="1">
-        <v>1580.7370000000001</v>
+        <v>1594.6659999999999</v>
       </c>
       <c r="C58" s="1">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="D58" s="1">
-        <v>-12</v>
+        <v>-12.03</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>850.97500000000002</v>
+        <v>858.07</v>
       </c>
       <c r="B59" s="1">
-        <v>1483.037</v>
+        <v>1496.396</v>
       </c>
       <c r="C59" s="1">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="D59" s="1">
-        <v>-10</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>847.95899999999995</v>
+        <v>855.45399999999995</v>
       </c>
       <c r="B60" s="1">
-        <v>1386.375</v>
+        <v>1397.8530000000001</v>
       </c>
       <c r="C60" s="1">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="D60" s="1">
-        <v>-7.97</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>845.55100000000004</v>
+        <v>853.46799999999996</v>
       </c>
       <c r="B61" s="1">
-        <v>1292.309</v>
+        <v>1300.694</v>
       </c>
       <c r="C61" s="1">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="D61" s="1">
-        <v>-5.97</v>
+        <v>-6</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>843.78499999999997</v>
+        <v>852.08100000000002</v>
       </c>
       <c r="B62" s="1">
-        <v>1197.5920000000001</v>
+        <v>1205.6880000000001</v>
       </c>
       <c r="C62" s="1">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="D62" s="1">
-        <v>-3.95</v>
+        <v>-4.03</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>842.62599999999998</v>
+        <v>851.202</v>
       </c>
       <c r="B63" s="1">
-        <v>1105.46</v>
+        <v>1109.96</v>
       </c>
       <c r="C63" s="1">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="D63" s="1">
         <v>-2</v>
@@ -1302,148 +1302,148 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>842</v>
+        <v>851.36099999999999</v>
       </c>
       <c r="B64" s="1">
-        <v>1010.385</v>
+        <v>1014.6559999999999</v>
       </c>
       <c r="C64" s="1">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="D64" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>842</v>
+        <v>851.91300000000001</v>
       </c>
       <c r="B65" s="1">
-        <v>918.65300000000002</v>
+        <v>920.89800000000002</v>
       </c>
       <c r="C65" s="1">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="D65" s="1">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>842.62199999999996</v>
+        <v>853.452</v>
       </c>
       <c r="B66" s="1">
-        <v>826.173</v>
+        <v>826.06299999999999</v>
       </c>
       <c r="C66" s="1">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="D66" s="1">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>843.76599999999996</v>
+        <v>855.26800000000003</v>
       </c>
       <c r="B67" s="1">
-        <v>732.06200000000001</v>
+        <v>730.96600000000001</v>
       </c>
       <c r="C67" s="1">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="D67" s="1">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>845.60400000000004</v>
+        <v>857.971</v>
       </c>
       <c r="B68" s="1">
-        <v>638.13099999999997</v>
+        <v>635.62199999999996</v>
       </c>
       <c r="C68" s="1">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="D68" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>848.16700000000003</v>
+        <v>861.29</v>
       </c>
       <c r="B69" s="1">
-        <v>544.88099999999997</v>
+        <v>540.87900000000002</v>
       </c>
       <c r="C69" s="1">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="D69" s="1">
-        <v>10.050000000000001</v>
+        <v>10</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>851.154</v>
+        <v>865.42700000000002</v>
       </c>
       <c r="B70" s="1">
-        <v>448.77300000000002</v>
+        <v>442.72399999999999</v>
       </c>
       <c r="C70" s="1">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="D70" s="1">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>854.548</v>
+        <v>869.99199999999996</v>
       </c>
       <c r="B71" s="1">
-        <v>351.29899999999998</v>
+        <v>344.827</v>
       </c>
       <c r="C71" s="1">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="D71" s="1">
-        <v>14.03</v>
+        <v>14</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>858.755</v>
+        <v>875.41300000000001</v>
       </c>
       <c r="B72" s="1">
-        <v>252.17</v>
+        <v>243.98099999999999</v>
       </c>
       <c r="C72" s="1">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="D72" s="1">
-        <v>16.02</v>
+        <v>16</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>827.78</v>
+        <v>836.928</v>
       </c>
       <c r="B73" s="1">
-        <v>1012.98</v>
+        <v>1013.106</v>
       </c>
       <c r="C73" s="1">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1452,28 +1452,28 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>849.32500000000005</v>
+        <v>855.26499999999999</v>
       </c>
       <c r="B74" s="1">
-        <v>1784.6210000000001</v>
+        <v>1789.105</v>
       </c>
       <c r="C74" s="1">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="D74" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>844.12</v>
+        <v>850.75</v>
       </c>
       <c r="B75" s="1">
-        <v>1680.412</v>
+        <v>1694.0550000000001</v>
       </c>
       <c r="C75" s="1">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="D75" s="1">
         <v>-14.03</v>
@@ -1482,88 +1482,88 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>839.97400000000005</v>
+        <v>846.81200000000001</v>
       </c>
       <c r="B76" s="1">
-        <v>1580.0940000000001</v>
+        <v>1593.845</v>
       </c>
       <c r="C76" s="1">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="D76" s="1">
-        <v>-12</v>
+        <v>-12.03</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>836.351</v>
+        <v>843.49</v>
       </c>
       <c r="B77" s="1">
-        <v>1483.029</v>
+        <v>1494.625</v>
       </c>
       <c r="C77" s="1">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="D77" s="1">
-        <v>-10</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>833.46299999999997</v>
+        <v>840.96699999999998</v>
       </c>
       <c r="B78" s="1">
-        <v>1386.422</v>
+        <v>1396.713</v>
       </c>
       <c r="C78" s="1">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="D78" s="1">
-        <v>-7.97</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>831</v>
+        <v>838.99599999999998</v>
       </c>
       <c r="B79" s="1">
-        <v>1291.702</v>
+        <v>1299.654</v>
       </c>
       <c r="C79" s="1">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="D79" s="1">
-        <v>-5.97</v>
+        <v>-6</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>829.2</v>
+        <v>837.47799999999995</v>
       </c>
       <c r="B80" s="1">
-        <v>1197.758</v>
+        <v>1204.652</v>
       </c>
       <c r="C80" s="1">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="D80" s="1">
-        <v>-3.95</v>
+        <v>-4.03</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>828.22400000000005</v>
+        <v>836.67899999999997</v>
       </c>
       <c r="B81" s="1">
-        <v>1105.2</v>
+        <v>1108.5609999999999</v>
       </c>
       <c r="C81" s="1">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="D81" s="1">
         <v>-2</v>
@@ -1572,136 +1572,136 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>827.76199999999994</v>
+        <v>836.91700000000003</v>
       </c>
       <c r="B82" s="1">
-        <v>1010.953</v>
+        <v>1014.056</v>
       </c>
       <c r="C82" s="1">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="D82" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>827.62199999999996</v>
+        <v>837.57899999999995</v>
       </c>
       <c r="B83" s="1">
-        <v>918.89400000000001</v>
+        <v>920.16</v>
       </c>
       <c r="C83" s="1">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="D83" s="1">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>828.32299999999998</v>
+        <v>838.774</v>
       </c>
       <c r="B84" s="1">
-        <v>826.60400000000004</v>
+        <v>825.87300000000005</v>
       </c>
       <c r="C84" s="1">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="D84" s="1">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>829.226</v>
+        <v>840.91099999999994</v>
       </c>
       <c r="B85" s="1">
-        <v>732.72</v>
+        <v>730.83600000000001</v>
       </c>
       <c r="C85" s="1">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="D85" s="1">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>831.07</v>
+        <v>843.54200000000003</v>
       </c>
       <c r="B86" s="1">
-        <v>639.02800000000002</v>
+        <v>635.32899999999995</v>
       </c>
       <c r="C86" s="1">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="D86" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>833.62800000000004</v>
+        <v>846.86400000000003</v>
       </c>
       <c r="B87" s="1">
-        <v>544.82100000000003</v>
+        <v>540.42600000000004</v>
       </c>
       <c r="C87" s="1">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="D87" s="1">
-        <v>10.050000000000001</v>
+        <v>10</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>836.47199999999998</v>
+        <v>850.64200000000005</v>
       </c>
       <c r="B88" s="1">
-        <v>449.88499999999999</v>
+        <v>443.214</v>
       </c>
       <c r="C88" s="1">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="D88" s="1">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>839.75699999999995</v>
+        <v>855.18899999999996</v>
       </c>
       <c r="B89" s="1">
-        <v>352.32400000000001</v>
+        <v>344.62099999999998</v>
       </c>
       <c r="C89" s="1">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="D89" s="1">
-        <v>14.03</v>
+        <v>14</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>843.76300000000003</v>
+        <v>860.41700000000003</v>
       </c>
       <c r="B90" s="1">
-        <v>253.297</v>
+        <v>245.02799999999999</v>
       </c>
       <c r="C90" s="1">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="D90" s="1">
-        <v>16.02</v>
+        <v>16</v>
       </c>
       <c r="E90" s="1"/>
     </row>

--- a/cam8_validation.xlsx
+++ b/cam8_validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF19D1D9-92AB-46C7-8388-2B7FAA6C52BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB2AD7B-7DF4-4C38-9002-C3C73B83080D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21703" yWindow="1431" windowWidth="7774" windowHeight="13218" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15737" yWindow="2649" windowWidth="16192" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -357,13 +357,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>901.98400000000004</v>
+        <v>901.827</v>
       </c>
       <c r="B1" s="1">
-        <v>1013.447</v>
+        <v>1013.022</v>
       </c>
       <c r="C1" s="1">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,103 +372,103 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>924.19200000000001</v>
+        <v>922.31799999999998</v>
       </c>
       <c r="B2" s="1">
-        <v>1818.239</v>
+        <v>1789.7560000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="D2" s="1">
-        <v>-15.92</v>
+        <v>-15.95</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>918.96699999999998</v>
+        <v>917.4</v>
       </c>
       <c r="B3" s="1">
-        <v>1719.954</v>
+        <v>1691.38</v>
       </c>
       <c r="C3" s="1">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="D3" s="1">
-        <v>-14.1</v>
+        <v>-14.03</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>914.11900000000003</v>
+        <v>912.88400000000001</v>
       </c>
       <c r="B4" s="1">
-        <v>1615.731</v>
+        <v>1590.3389999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="D4" s="1">
-        <v>-12.07</v>
+        <v>-12.03</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>910.56</v>
+        <v>909.101</v>
       </c>
       <c r="B5" s="1">
-        <v>1529.827</v>
+        <v>1492.02</v>
       </c>
       <c r="C5" s="1">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="D5" s="1">
-        <v>-9.9</v>
+        <v>-10</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>907.54200000000003</v>
+        <v>906.16099999999994</v>
       </c>
       <c r="B6" s="1">
-        <v>1437.145</v>
+        <v>1395.046</v>
       </c>
       <c r="C6" s="1">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="D6" s="1">
-        <v>-8.0500000000000007</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>905.12400000000002</v>
+        <v>903.88900000000001</v>
       </c>
       <c r="B7" s="1">
-        <v>1339.53</v>
+        <v>1297.19</v>
       </c>
       <c r="C7" s="1">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="D7" s="1">
-        <v>-6</v>
+        <v>-5.98</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>903.10199999999998</v>
+        <v>902.44</v>
       </c>
       <c r="B8" s="1">
-        <v>1242.9839999999999</v>
+        <v>1203.2570000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="D8" s="1">
         <v>-4</v>
@@ -477,28 +477,28 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>901.75800000000004</v>
+        <v>901.56399999999996</v>
       </c>
       <c r="B9" s="1">
-        <v>1148.2339999999999</v>
+        <v>1108.1179999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="D9" s="1">
-        <v>-2.0299999999999998</v>
+        <v>-1.98</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>901.88499999999999</v>
+        <v>901.89800000000002</v>
       </c>
       <c r="B10" s="1">
-        <v>1051.674</v>
+        <v>1014.072</v>
       </c>
       <c r="C10" s="1">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -507,28 +507,28 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>902.13599999999997</v>
+        <v>902.41099999999994</v>
       </c>
       <c r="B11" s="1">
-        <v>956.48099999999999</v>
+        <v>919.60400000000004</v>
       </c>
       <c r="C11" s="1">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>903.36300000000006</v>
+        <v>903.65700000000004</v>
       </c>
       <c r="B12" s="1">
-        <v>862.38499999999999</v>
+        <v>825.48900000000003</v>
       </c>
       <c r="C12" s="1">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
@@ -537,58 +537,58 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>905.053</v>
+        <v>905.85</v>
       </c>
       <c r="B13" s="1">
-        <v>766.97</v>
+        <v>730.13499999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="D13" s="1">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>907.755</v>
+        <v>908.80200000000002</v>
       </c>
       <c r="B14" s="1">
-        <v>672.42100000000005</v>
+        <v>635.66300000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="D14" s="1">
-        <v>8</v>
+        <v>8.02</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>911.096</v>
+        <v>912.26700000000005</v>
       </c>
       <c r="B15" s="1">
-        <v>575.94299999999998</v>
+        <v>540.64200000000005</v>
       </c>
       <c r="C15" s="1">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="D15" s="1">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>915.149</v>
+        <v>916.73599999999999</v>
       </c>
       <c r="B16" s="1">
-        <v>478.11700000000002</v>
+        <v>443.68400000000003</v>
       </c>
       <c r="C16" s="1">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="D16" s="1">
         <v>12</v>
@@ -597,43 +597,43 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>919.85299999999995</v>
+        <v>921.70699999999999</v>
       </c>
       <c r="B17" s="1">
-        <v>380.46499999999997</v>
+        <v>344.79399999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="D17" s="1">
-        <v>14</v>
+        <v>14.02</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>925.41899999999998</v>
+        <v>927.351</v>
       </c>
       <c r="B18" s="1">
-        <v>279.89100000000002</v>
+        <v>245.55</v>
       </c>
       <c r="C18" s="1">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="D18" s="1">
-        <v>16</v>
+        <v>16.02</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>883.83399999999995</v>
+        <v>883.71799999999996</v>
       </c>
       <c r="B19" s="1">
-        <v>1013.184</v>
+        <v>1013.575</v>
       </c>
       <c r="C19" s="1">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -642,28 +642,28 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>903.88800000000003</v>
+        <v>903.55100000000004</v>
       </c>
       <c r="B20" s="1">
-        <v>1791.425</v>
+        <v>1788.654</v>
       </c>
       <c r="C20" s="1">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="D20" s="1">
-        <v>-15.9</v>
+        <v>-15.95</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>899.08600000000001</v>
+        <v>898.654</v>
       </c>
       <c r="B21" s="1">
-        <v>1696.2660000000001</v>
+        <v>1690.8610000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="D21" s="1">
         <v>-14.03</v>
@@ -672,13 +672,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>894.79100000000005</v>
+        <v>894.46900000000005</v>
       </c>
       <c r="B22" s="1">
-        <v>1595.3130000000001</v>
+        <v>1590.3630000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="D22" s="1">
         <v>-12.03</v>
@@ -687,28 +687,28 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>891.18600000000004</v>
+        <v>890.72799999999995</v>
       </c>
       <c r="B23" s="1">
-        <v>1496.357</v>
+        <v>1490.8320000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="D23" s="1">
-        <v>-10.029999999999999</v>
+        <v>-10</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>888.04399999999998</v>
+        <v>887.904</v>
       </c>
       <c r="B24" s="1">
-        <v>1397.789</v>
+        <v>1394.5319999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="D24" s="1">
         <v>-8.0299999999999994</v>
@@ -717,28 +717,28 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>885.95100000000002</v>
+        <v>885.63900000000001</v>
       </c>
       <c r="B25" s="1">
-        <v>1300.4839999999999</v>
+        <v>1297.4749999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="D25" s="1">
-        <v>-6</v>
+        <v>-5.98</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>884.51199999999994</v>
+        <v>884.40099999999995</v>
       </c>
       <c r="B26" s="1">
-        <v>1204.845</v>
+        <v>1202.4680000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="D26" s="1">
         <v>-4</v>
@@ -747,28 +747,28 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>883.39800000000002</v>
+        <v>883.42</v>
       </c>
       <c r="B27" s="1">
-        <v>1109.789</v>
+        <v>1107.923</v>
       </c>
       <c r="C27" s="1">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="D27" s="1">
-        <v>-2.0299999999999998</v>
+        <v>-1.98</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>883.83600000000001</v>
+        <v>883.76300000000003</v>
       </c>
       <c r="B28" s="1">
-        <v>1013.756</v>
+        <v>1014.056</v>
       </c>
       <c r="C28" s="1">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -777,28 +777,28 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>884.11199999999997</v>
+        <v>884.20899999999995</v>
       </c>
       <c r="B29" s="1">
-        <v>920.11699999999996</v>
+        <v>919.79899999999998</v>
       </c>
       <c r="C29" s="1">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="D29" s="1">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>885.8</v>
+        <v>885.55399999999997</v>
       </c>
       <c r="B30" s="1">
-        <v>824.61800000000005</v>
+        <v>826.07799999999997</v>
       </c>
       <c r="C30" s="1">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="D30" s="1">
         <v>4</v>
@@ -807,103 +807,103 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>887.89400000000001</v>
+        <v>887.56799999999998</v>
       </c>
       <c r="B31" s="1">
-        <v>729.70600000000002</v>
+        <v>731.28599999999994</v>
       </c>
       <c r="C31" s="1">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="D31" s="1">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>890.74599999999998</v>
+        <v>890.52700000000004</v>
       </c>
       <c r="B32" s="1">
-        <v>633.74099999999999</v>
+        <v>636.90700000000004</v>
       </c>
       <c r="C32" s="1">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="D32" s="1">
-        <v>8.0299999999999994</v>
+        <v>8.02</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>894.13599999999997</v>
+        <v>893.923</v>
       </c>
       <c r="B33" s="1">
-        <v>538.60199999999998</v>
+        <v>540.96100000000001</v>
       </c>
       <c r="C33" s="1">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="D33" s="1">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>898.46799999999996</v>
+        <v>898.25300000000004</v>
       </c>
       <c r="B34" s="1">
-        <v>441.154</v>
+        <v>444.28899999999999</v>
       </c>
       <c r="C34" s="1">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="D34" s="1">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>903.37599999999998</v>
+        <v>902.98900000000003</v>
       </c>
       <c r="B35" s="1">
-        <v>342.02699999999999</v>
+        <v>346.96899999999999</v>
       </c>
       <c r="C35" s="1">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="D35" s="1">
-        <v>14.03</v>
+        <v>14</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>908.96500000000003</v>
+        <v>908.53700000000003</v>
       </c>
       <c r="B36" s="1">
-        <v>243.011</v>
+        <v>247.22200000000001</v>
       </c>
       <c r="C36" s="1">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="D36" s="1">
-        <v>15.97</v>
+        <v>16.02</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>866.81600000000003</v>
+        <v>866.87699999999995</v>
       </c>
       <c r="B37" s="1">
-        <v>1013.0170000000001</v>
+        <v>1013.326</v>
       </c>
       <c r="C37" s="1">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -912,28 +912,28 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>886.32299999999998</v>
+        <v>885.98500000000001</v>
       </c>
       <c r="B38" s="1">
-        <v>1791.116</v>
+        <v>1787.3309999999999</v>
       </c>
       <c r="C38" s="1">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="D38" s="1">
-        <v>-15.9</v>
+        <v>-15.95</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>881.88199999999995</v>
+        <v>881.45399999999995</v>
       </c>
       <c r="B39" s="1">
-        <v>1695.36</v>
+        <v>1690.2650000000001</v>
       </c>
       <c r="C39" s="1">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="D39" s="1">
         <v>-14.03</v>
@@ -942,28 +942,28 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>877.57399999999996</v>
+        <v>877.245</v>
       </c>
       <c r="B40" s="1">
-        <v>1595.5260000000001</v>
+        <v>1590.0530000000001</v>
       </c>
       <c r="C40" s="1">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="D40" s="1">
-        <v>-12.03</v>
+        <v>-12</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>874.17200000000003</v>
+        <v>873.71199999999999</v>
       </c>
       <c r="B41" s="1">
-        <v>1496.684</v>
+        <v>1491.1510000000001</v>
       </c>
       <c r="C41" s="1">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="D41" s="1">
         <v>-10.029999999999999</v>
@@ -972,28 +972,28 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>871.28300000000002</v>
+        <v>871.096</v>
       </c>
       <c r="B42" s="1">
-        <v>1398.1590000000001</v>
+        <v>1393.77</v>
       </c>
       <c r="C42" s="1">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="D42" s="1">
-        <v>-8.0299999999999994</v>
+        <v>-8</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>869.00900000000001</v>
+        <v>868.97299999999996</v>
       </c>
       <c r="B43" s="1">
-        <v>1301.0219999999999</v>
+        <v>1298.4849999999999</v>
       </c>
       <c r="C43" s="1">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="D43" s="1">
         <v>-6</v>
@@ -1002,43 +1002,43 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>867.66700000000003</v>
+        <v>867.47900000000004</v>
       </c>
       <c r="B44" s="1">
-        <v>1205.636</v>
+        <v>1202.6859999999999</v>
       </c>
       <c r="C44" s="1">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="D44" s="1">
-        <v>-4.03</v>
+        <v>-4</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>866.53300000000002</v>
+        <v>866.73699999999997</v>
       </c>
       <c r="B45" s="1">
-        <v>1109.6679999999999</v>
+        <v>1108.0440000000001</v>
       </c>
       <c r="C45" s="1">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="D45" s="1">
-        <v>-2</v>
+        <v>-1.98</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>866.80399999999997</v>
+        <v>866.91200000000003</v>
       </c>
       <c r="B46" s="1">
-        <v>1014.322</v>
+        <v>1014.003</v>
       </c>
       <c r="C46" s="1">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -1047,118 +1047,118 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>867.55399999999997</v>
+        <v>867.59699999999998</v>
       </c>
       <c r="B47" s="1">
-        <v>920.6</v>
+        <v>919.77300000000002</v>
       </c>
       <c r="C47" s="1">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="D47" s="1">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>869.02300000000002</v>
+        <v>868.82799999999997</v>
       </c>
       <c r="B48" s="1">
-        <v>825.75699999999995</v>
+        <v>826.43499999999995</v>
       </c>
       <c r="C48" s="1">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="D48" s="1">
-        <v>4</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>870.99199999999996</v>
+        <v>870.78899999999999</v>
       </c>
       <c r="B49" s="1">
-        <v>730.33299999999997</v>
+        <v>732.36300000000006</v>
       </c>
       <c r="C49" s="1">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="D49" s="1">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>873.78</v>
+        <v>873.48800000000006</v>
       </c>
       <c r="B50" s="1">
-        <v>634.82100000000003</v>
+        <v>638.70000000000005</v>
       </c>
       <c r="C50" s="1">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="D50" s="1">
-        <v>8.0299999999999994</v>
+        <v>8</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>877.197</v>
+        <v>876.96600000000001</v>
       </c>
       <c r="B51" s="1">
-        <v>539.38599999999997</v>
+        <v>541.32100000000003</v>
       </c>
       <c r="C51" s="1">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="D51" s="1">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>881.38300000000004</v>
+        <v>881.11699999999996</v>
       </c>
       <c r="B52" s="1">
-        <v>441.82400000000001</v>
+        <v>445.78699999999998</v>
       </c>
       <c r="C52" s="1">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="D52" s="1">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>886.11800000000005</v>
+        <v>885.79200000000003</v>
       </c>
       <c r="B53" s="1">
-        <v>343.279</v>
+        <v>347.721</v>
       </c>
       <c r="C53" s="1">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="D53" s="1">
-        <v>14</v>
+        <v>14.02</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>891.45699999999999</v>
+        <v>891.09100000000001</v>
       </c>
       <c r="B54" s="1">
-        <v>243.05</v>
+        <v>249.09399999999999</v>
       </c>
       <c r="C54" s="1">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="D54" s="1">
         <v>16</v>
@@ -1167,13 +1167,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>851.36699999999996</v>
+        <v>851.30600000000004</v>
       </c>
       <c r="B55" s="1">
-        <v>1013.425</v>
+        <v>1013.42</v>
       </c>
       <c r="C55" s="1">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1182,88 +1182,88 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>870.226</v>
+        <v>869.88499999999999</v>
       </c>
       <c r="B56" s="1">
-        <v>1790.961</v>
+        <v>1787.7049999999999</v>
       </c>
       <c r="C56" s="1">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="D56" s="1">
-        <v>-15.9</v>
+        <v>-15.98</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>865.72199999999998</v>
+        <v>865.29600000000005</v>
       </c>
       <c r="B57" s="1">
-        <v>1695.423</v>
+        <v>1688.105</v>
       </c>
       <c r="C57" s="1">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="D57" s="1">
-        <v>-14.03</v>
+        <v>-14.02</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>861.70299999999997</v>
+        <v>861.26599999999996</v>
       </c>
       <c r="B58" s="1">
-        <v>1594.6659999999999</v>
+        <v>1587.5650000000001</v>
       </c>
       <c r="C58" s="1">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="D58" s="1">
-        <v>-12.03</v>
+        <v>-12</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>858.07</v>
+        <v>857.84799999999996</v>
       </c>
       <c r="B59" s="1">
-        <v>1496.396</v>
+        <v>1490.2719999999999</v>
       </c>
       <c r="C59" s="1">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="D59" s="1">
-        <v>-10.029999999999999</v>
+        <v>-10.02</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>855.45399999999995</v>
+        <v>855.29</v>
       </c>
       <c r="B60" s="1">
-        <v>1397.8530000000001</v>
+        <v>1392.402</v>
       </c>
       <c r="C60" s="1">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="D60" s="1">
-        <v>-8.0299999999999994</v>
+        <v>-8</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>853.46799999999996</v>
+        <v>853.30899999999997</v>
       </c>
       <c r="B61" s="1">
-        <v>1300.694</v>
+        <v>1296.6389999999999</v>
       </c>
       <c r="C61" s="1">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="D61" s="1">
         <v>-6</v>
@@ -1272,148 +1272,148 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>852.08100000000002</v>
+        <v>851.88900000000001</v>
       </c>
       <c r="B62" s="1">
-        <v>1205.6880000000001</v>
+        <v>1201.96</v>
       </c>
       <c r="C62" s="1">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="D62" s="1">
-        <v>-4.03</v>
+        <v>-4</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>851.202</v>
+        <v>851.02700000000004</v>
       </c>
       <c r="B63" s="1">
-        <v>1109.96</v>
+        <v>1106.8579999999999</v>
       </c>
       <c r="C63" s="1">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="D63" s="1">
-        <v>-2</v>
+        <v>-1.97</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>851.36099999999999</v>
+        <v>851.327</v>
       </c>
       <c r="B64" s="1">
-        <v>1014.6559999999999</v>
+        <v>1013.376</v>
       </c>
       <c r="C64" s="1">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>851.91300000000001</v>
+        <v>851.87900000000002</v>
       </c>
       <c r="B65" s="1">
-        <v>920.89800000000002</v>
+        <v>918.5</v>
       </c>
       <c r="C65" s="1">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="D65" s="1">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>853.452</v>
+        <v>853.13900000000001</v>
       </c>
       <c r="B66" s="1">
-        <v>826.06299999999999</v>
+        <v>825.24</v>
       </c>
       <c r="C66" s="1">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="D66" s="1">
-        <v>4</v>
+        <v>4.03</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>855.26800000000003</v>
+        <v>855.36699999999996</v>
       </c>
       <c r="B67" s="1">
-        <v>730.96600000000001</v>
+        <v>731.74699999999996</v>
       </c>
       <c r="C67" s="1">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="D67" s="1">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>857.971</v>
+        <v>857.87400000000002</v>
       </c>
       <c r="B68" s="1">
-        <v>635.62199999999996</v>
+        <v>637.33799999999997</v>
       </c>
       <c r="C68" s="1">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="D68" s="1">
-        <v>8.0299999999999994</v>
+        <v>8</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>861.29</v>
+        <v>861.29600000000005</v>
       </c>
       <c r="B69" s="1">
-        <v>540.87900000000002</v>
+        <v>540.84299999999996</v>
       </c>
       <c r="C69" s="1">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="D69" s="1">
-        <v>10</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>865.42700000000002</v>
+        <v>865.24900000000002</v>
       </c>
       <c r="B70" s="1">
-        <v>442.72399999999999</v>
+        <v>445.37799999999999</v>
       </c>
       <c r="C70" s="1">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="D70" s="1">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>869.99199999999996</v>
+        <v>869.61099999999999</v>
       </c>
       <c r="B71" s="1">
-        <v>344.827</v>
+        <v>348.52600000000001</v>
       </c>
       <c r="C71" s="1">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="D71" s="1">
         <v>14</v>
@@ -1422,28 +1422,28 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>875.41300000000001</v>
+        <v>875.08699999999999</v>
       </c>
       <c r="B72" s="1">
-        <v>243.98099999999999</v>
+        <v>247.59299999999999</v>
       </c>
       <c r="C72" s="1">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="D72" s="1">
-        <v>16</v>
+        <v>16.03</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>836.928</v>
+        <v>836.81100000000004</v>
       </c>
       <c r="B73" s="1">
-        <v>1013.106</v>
+        <v>1013.482</v>
       </c>
       <c r="C73" s="1">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1452,133 +1452,133 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>855.26499999999999</v>
+        <v>854.81399999999996</v>
       </c>
       <c r="B74" s="1">
-        <v>1789.105</v>
+        <v>1786.373</v>
       </c>
       <c r="C74" s="1">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="D74" s="1">
-        <v>-15.9</v>
+        <v>-15.95</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>850.75</v>
+        <v>850.423</v>
       </c>
       <c r="B75" s="1">
-        <v>1694.0550000000001</v>
+        <v>1688.587</v>
       </c>
       <c r="C75" s="1">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="D75" s="1">
-        <v>-14.03</v>
+        <v>-14.02</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>846.81200000000001</v>
+        <v>846.64</v>
       </c>
       <c r="B76" s="1">
-        <v>1593.845</v>
+        <v>1588.5550000000001</v>
       </c>
       <c r="C76" s="1">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="D76" s="1">
-        <v>-12.03</v>
+        <v>-12.02</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>843.49</v>
+        <v>843.16700000000003</v>
       </c>
       <c r="B77" s="1">
-        <v>1494.625</v>
+        <v>1489.6179999999999</v>
       </c>
       <c r="C77" s="1">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="D77" s="1">
-        <v>-10.029999999999999</v>
+        <v>-10</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>840.96699999999998</v>
+        <v>840.51499999999999</v>
       </c>
       <c r="B78" s="1">
-        <v>1396.713</v>
+        <v>1392.796</v>
       </c>
       <c r="C78" s="1">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="D78" s="1">
-        <v>-8.0299999999999994</v>
+        <v>-8.02</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>838.99599999999998</v>
+        <v>838.64700000000005</v>
       </c>
       <c r="B79" s="1">
-        <v>1299.654</v>
+        <v>1296.71</v>
       </c>
       <c r="C79" s="1">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="D79" s="1">
-        <v>-6</v>
+        <v>-5.97</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>837.47799999999995</v>
+        <v>837.37199999999996</v>
       </c>
       <c r="B80" s="1">
-        <v>1204.652</v>
+        <v>1202.6500000000001</v>
       </c>
       <c r="C80" s="1">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="D80" s="1">
-        <v>-4.03</v>
+        <v>-4.0199999999999996</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>836.67899999999997</v>
+        <v>836.697</v>
       </c>
       <c r="B81" s="1">
-        <v>1108.5609999999999</v>
+        <v>1106.8869999999999</v>
       </c>
       <c r="C81" s="1">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="D81" s="1">
-        <v>-2</v>
+        <v>-1.97</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>836.91700000000003</v>
+        <v>836.947</v>
       </c>
       <c r="B82" s="1">
-        <v>1014.056</v>
+        <v>1013.425</v>
       </c>
       <c r="C82" s="1">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -1587,28 +1587,28 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>837.57899999999995</v>
+        <v>837.27499999999998</v>
       </c>
       <c r="B83" s="1">
-        <v>920.16</v>
+        <v>919.18100000000004</v>
       </c>
       <c r="C83" s="1">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="D83" s="1">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>838.774</v>
+        <v>838.76</v>
       </c>
       <c r="B84" s="1">
-        <v>825.87300000000005</v>
+        <v>826.51300000000003</v>
       </c>
       <c r="C84" s="1">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="D84" s="1">
         <v>4</v>
@@ -1617,28 +1617,28 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>840.91099999999994</v>
+        <v>840.82600000000002</v>
       </c>
       <c r="B85" s="1">
-        <v>730.83600000000001</v>
+        <v>731.78899999999999</v>
       </c>
       <c r="C85" s="1">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="D85" s="1">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>843.54200000000003</v>
+        <v>843.35599999999999</v>
       </c>
       <c r="B86" s="1">
-        <v>635.32899999999995</v>
+        <v>637.16700000000003</v>
       </c>
       <c r="C86" s="1">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="D86" s="1">
         <v>8.0299999999999994</v>
@@ -1647,28 +1647,28 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>846.86400000000003</v>
+        <v>846.48599999999999</v>
       </c>
       <c r="B87" s="1">
-        <v>540.42600000000004</v>
+        <v>542.149</v>
       </c>
       <c r="C87" s="1">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="D87" s="1">
-        <v>10</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>850.64200000000005</v>
+        <v>850.36800000000005</v>
       </c>
       <c r="B88" s="1">
-        <v>443.214</v>
+        <v>446.53199999999998</v>
       </c>
       <c r="C88" s="1">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="D88" s="1">
         <v>12</v>
@@ -1677,28 +1677,28 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>855.18899999999996</v>
+        <v>854.96</v>
       </c>
       <c r="B89" s="1">
-        <v>344.62099999999998</v>
+        <v>348.24200000000002</v>
       </c>
       <c r="C89" s="1">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="D89" s="1">
-        <v>14</v>
+        <v>14.03</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>860.41700000000003</v>
+        <v>859.94299999999998</v>
       </c>
       <c r="B90" s="1">
-        <v>245.02799999999999</v>
+        <v>250.12299999999999</v>
       </c>
       <c r="C90" s="1">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="D90" s="1">
         <v>16</v>

--- a/cam8_validation.xlsx
+++ b/cam8_validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB2AD7B-7DF4-4C38-9002-C3C73B83080D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A237CF1-7F10-46D3-A5AD-C0461A99C1C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15737" yWindow="2649" windowWidth="16192" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1131" yWindow="1131" windowWidth="16192" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -357,13 +357,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>901.827</v>
+        <v>847.99699999999996</v>
       </c>
       <c r="B1" s="1">
-        <v>1013.022</v>
+        <v>1013.199</v>
       </c>
       <c r="C1" s="1">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,58 +372,58 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>922.31799999999998</v>
+        <v>878.49800000000005</v>
       </c>
       <c r="B2" s="1">
-        <v>1789.7560000000001</v>
+        <v>1794.992</v>
       </c>
       <c r="C2" s="1">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="D2" s="1">
-        <v>-15.95</v>
+        <v>-15.93</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>917.4</v>
+        <v>872.77599999999995</v>
       </c>
       <c r="B3" s="1">
-        <v>1691.38</v>
+        <v>1697.4380000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="D3" s="1">
-        <v>-14.03</v>
+        <v>-14.05</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>912.88400000000001</v>
+        <v>867.07799999999997</v>
       </c>
       <c r="B4" s="1">
-        <v>1590.3389999999999</v>
+        <v>1594.9110000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="D4" s="1">
-        <v>-12.03</v>
+        <v>-12</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>909.101</v>
+        <v>862.255</v>
       </c>
       <c r="B5" s="1">
-        <v>1492.02</v>
+        <v>1496.3430000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="D5" s="1">
         <v>-10</v>
@@ -432,43 +432,43 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>906.16099999999994</v>
+        <v>858.09799999999996</v>
       </c>
       <c r="B6" s="1">
-        <v>1395.046</v>
+        <v>1398.4259999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="D6" s="1">
-        <v>-8.0299999999999994</v>
+        <v>-8</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>903.88900000000001</v>
+        <v>854.72500000000002</v>
       </c>
       <c r="B7" s="1">
-        <v>1297.19</v>
+        <v>1301.248</v>
       </c>
       <c r="C7" s="1">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="D7" s="1">
-        <v>-5.98</v>
+        <v>-6</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>902.44</v>
+        <v>851.71699999999998</v>
       </c>
       <c r="B8" s="1">
-        <v>1203.2570000000001</v>
+        <v>1205.6469999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="D8" s="1">
         <v>-4</v>
@@ -477,163 +477,163 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>901.56399999999996</v>
+        <v>849.48299999999995</v>
       </c>
       <c r="B9" s="1">
-        <v>1108.1179999999999</v>
+        <v>1109.8309999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.98</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>901.89800000000002</v>
+        <v>847.96799999999996</v>
       </c>
       <c r="B10" s="1">
-        <v>1014.072</v>
+        <v>1013.184</v>
       </c>
       <c r="C10" s="1">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>902.41099999999994</v>
+        <v>847.05200000000002</v>
       </c>
       <c r="B11" s="1">
-        <v>919.60400000000004</v>
+        <v>919.15899999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="D11" s="1">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>903.65700000000004</v>
+        <v>846.53399999999999</v>
       </c>
       <c r="B12" s="1">
-        <v>825.48900000000003</v>
+        <v>823.21699999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="D12" s="1">
-        <v>4</v>
+        <v>3.97</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>905.85</v>
+        <v>846.75300000000004</v>
       </c>
       <c r="B13" s="1">
-        <v>730.13499999999999</v>
+        <v>725.59400000000005</v>
       </c>
       <c r="C13" s="1">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="D13" s="1">
-        <v>6.02</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>908.80200000000002</v>
+        <v>847.755</v>
       </c>
       <c r="B14" s="1">
-        <v>635.66300000000001</v>
+        <v>628.73400000000004</v>
       </c>
       <c r="C14" s="1">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="D14" s="1">
-        <v>8.02</v>
+        <v>7.97</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>912.26700000000005</v>
+        <v>849.46400000000006</v>
       </c>
       <c r="B15" s="1">
-        <v>540.64200000000005</v>
+        <v>529.70399999999995</v>
       </c>
       <c r="C15" s="1">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="D15" s="1">
-        <v>10.02</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>916.73599999999999</v>
+        <v>851.346</v>
       </c>
       <c r="B16" s="1">
-        <v>443.68400000000003</v>
+        <v>429.62599999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="D16" s="1">
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>921.70699999999999</v>
+        <v>854.08299999999997</v>
       </c>
       <c r="B17" s="1">
-        <v>344.79399999999998</v>
+        <v>326.74400000000003</v>
       </c>
       <c r="C17" s="1">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="D17" s="1">
-        <v>14.02</v>
+        <v>13.97</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>927.351</v>
+        <v>857.57299999999998</v>
       </c>
       <c r="B18" s="1">
-        <v>245.55</v>
+        <v>223.44399999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="D18" s="1">
-        <v>16.02</v>
+        <v>15.97</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>883.71799999999996</v>
+        <v>829.60400000000004</v>
       </c>
       <c r="B19" s="1">
-        <v>1013.575</v>
+        <v>1013.534</v>
       </c>
       <c r="C19" s="1">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -642,28 +642,28 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>903.55100000000004</v>
+        <v>859.58199999999999</v>
       </c>
       <c r="B20" s="1">
-        <v>1788.654</v>
+        <v>1794.385</v>
       </c>
       <c r="C20" s="1">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="D20" s="1">
-        <v>-15.95</v>
+        <v>-15.93</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>898.654</v>
+        <v>853.952</v>
       </c>
       <c r="B21" s="1">
-        <v>1690.8610000000001</v>
+        <v>1695.9169999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="D21" s="1">
         <v>-14.03</v>
@@ -672,13 +672,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>894.46900000000005</v>
+        <v>848.72799999999995</v>
       </c>
       <c r="B22" s="1">
-        <v>1590.3630000000001</v>
+        <v>1595.0070000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="D22" s="1">
         <v>-12.03</v>
@@ -687,13 +687,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>890.72799999999995</v>
+        <v>843.649</v>
       </c>
       <c r="B23" s="1">
-        <v>1490.8320000000001</v>
+        <v>1495.431</v>
       </c>
       <c r="C23" s="1">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="D23" s="1">
         <v>-10</v>
@@ -702,43 +702,43 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>887.904</v>
+        <v>839.93399999999997</v>
       </c>
       <c r="B24" s="1">
-        <v>1394.5319999999999</v>
+        <v>1398.296</v>
       </c>
       <c r="C24" s="1">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="D24" s="1">
-        <v>-8.0299999999999994</v>
+        <v>-8</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>885.63900000000001</v>
+        <v>836.5</v>
       </c>
       <c r="B25" s="1">
-        <v>1297.4749999999999</v>
+        <v>1301.8430000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="D25" s="1">
-        <v>-5.98</v>
+        <v>-6</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>884.40099999999995</v>
+        <v>833.51499999999999</v>
       </c>
       <c r="B26" s="1">
-        <v>1202.4680000000001</v>
+        <v>1205.547</v>
       </c>
       <c r="C26" s="1">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="D26" s="1">
         <v>-4</v>
@@ -747,58 +747,58 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>883.42</v>
+        <v>831.44600000000003</v>
       </c>
       <c r="B27" s="1">
-        <v>1107.923</v>
+        <v>1109.672</v>
       </c>
       <c r="C27" s="1">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="D27" s="1">
-        <v>-1.98</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>883.76300000000003</v>
+        <v>829.71799999999996</v>
       </c>
       <c r="B28" s="1">
-        <v>1014.056</v>
+        <v>1013.572</v>
       </c>
       <c r="C28" s="1">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>884.20899999999995</v>
+        <v>828.67399999999998</v>
       </c>
       <c r="B29" s="1">
-        <v>919.79899999999998</v>
+        <v>919.48</v>
       </c>
       <c r="C29" s="1">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="D29" s="1">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>885.55399999999997</v>
+        <v>828.25900000000001</v>
       </c>
       <c r="B30" s="1">
-        <v>826.07799999999997</v>
+        <v>822.476</v>
       </c>
       <c r="C30" s="1">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="D30" s="1">
         <v>4</v>
@@ -807,103 +807,103 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>887.56799999999998</v>
+        <v>828.53599999999994</v>
       </c>
       <c r="B31" s="1">
-        <v>731.28599999999994</v>
+        <v>726.26700000000005</v>
       </c>
       <c r="C31" s="1">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="D31" s="1">
-        <v>6.02</v>
+        <v>6</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>890.52700000000004</v>
+        <v>829.49300000000005</v>
       </c>
       <c r="B32" s="1">
-        <v>636.90700000000004</v>
+        <v>629.702</v>
       </c>
       <c r="C32" s="1">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="D32" s="1">
-        <v>8.02</v>
+        <v>7.97</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>893.923</v>
+        <v>830.93200000000002</v>
       </c>
       <c r="B33" s="1">
-        <v>540.96100000000001</v>
+        <v>531.01400000000001</v>
       </c>
       <c r="C33" s="1">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="D33" s="1">
-        <v>10.02</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>898.25300000000004</v>
+        <v>832.92600000000004</v>
       </c>
       <c r="B34" s="1">
-        <v>444.28899999999999</v>
+        <v>431.77</v>
       </c>
       <c r="C34" s="1">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="D34" s="1">
-        <v>12.02</v>
+        <v>11.95</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>902.98900000000003</v>
+        <v>835.46</v>
       </c>
       <c r="B35" s="1">
-        <v>346.96899999999999</v>
+        <v>328.59300000000002</v>
       </c>
       <c r="C35" s="1">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="D35" s="1">
-        <v>14</v>
+        <v>13.97</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>908.53700000000003</v>
+        <v>838.63</v>
       </c>
       <c r="B36" s="1">
-        <v>247.22200000000001</v>
+        <v>224.917</v>
       </c>
       <c r="C36" s="1">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="D36" s="1">
-        <v>16.02</v>
+        <v>15.97</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>866.87699999999995</v>
+        <v>812.86400000000003</v>
       </c>
       <c r="B37" s="1">
-        <v>1013.326</v>
+        <v>1013.379</v>
       </c>
       <c r="C37" s="1">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -912,28 +912,28 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>885.98500000000001</v>
+        <v>842.04200000000003</v>
       </c>
       <c r="B38" s="1">
-        <v>1787.3309999999999</v>
+        <v>1793.31</v>
       </c>
       <c r="C38" s="1">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="D38" s="1">
-        <v>-15.95</v>
+        <v>-15.93</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>881.45399999999995</v>
+        <v>836.53499999999997</v>
       </c>
       <c r="B39" s="1">
-        <v>1690.2650000000001</v>
+        <v>1694.873</v>
       </c>
       <c r="C39" s="1">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="D39" s="1">
         <v>-14.03</v>
@@ -942,13 +942,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>877.245</v>
+        <v>831.28200000000004</v>
       </c>
       <c r="B40" s="1">
-        <v>1590.0530000000001</v>
+        <v>1594.0360000000001</v>
       </c>
       <c r="C40" s="1">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="D40" s="1">
         <v>-12</v>
@@ -957,13 +957,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>873.71199999999999</v>
+        <v>826.85799999999995</v>
       </c>
       <c r="B41" s="1">
-        <v>1491.1510000000001</v>
+        <v>1495.3119999999999</v>
       </c>
       <c r="C41" s="1">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="D41" s="1">
         <v>-10.029999999999999</v>
@@ -972,13 +972,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>871.096</v>
+        <v>822.96199999999999</v>
       </c>
       <c r="B42" s="1">
-        <v>1393.77</v>
+        <v>1397.0119999999999</v>
       </c>
       <c r="C42" s="1">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="D42" s="1">
         <v>-8</v>
@@ -987,13 +987,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>868.97299999999996</v>
+        <v>819.48699999999997</v>
       </c>
       <c r="B43" s="1">
-        <v>1298.4849999999999</v>
+        <v>1300.8789999999999</v>
       </c>
       <c r="C43" s="1">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="D43" s="1">
         <v>-6</v>
@@ -1002,13 +1002,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>867.47900000000004</v>
+        <v>816.65099999999995</v>
       </c>
       <c r="B44" s="1">
-        <v>1202.6859999999999</v>
+        <v>1205.556</v>
       </c>
       <c r="C44" s="1">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="D44" s="1">
         <v>-4</v>
@@ -1017,163 +1017,163 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>866.73699999999997</v>
+        <v>814.51300000000003</v>
       </c>
       <c r="B45" s="1">
-        <v>1108.0440000000001</v>
+        <v>1109.826</v>
       </c>
       <c r="C45" s="1">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="D45" s="1">
-        <v>-1.98</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>866.91200000000003</v>
+        <v>812.95</v>
       </c>
       <c r="B46" s="1">
-        <v>1014.003</v>
+        <v>1013.279</v>
       </c>
       <c r="C46" s="1">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>867.59699999999998</v>
+        <v>811.95699999999999</v>
       </c>
       <c r="B47" s="1">
-        <v>919.77300000000002</v>
+        <v>919.36900000000003</v>
       </c>
       <c r="C47" s="1">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="D47" s="1">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>868.82799999999997</v>
+        <v>811.50699999999995</v>
       </c>
       <c r="B48" s="1">
-        <v>826.43499999999995</v>
+        <v>822.30399999999997</v>
       </c>
       <c r="C48" s="1">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="D48" s="1">
-        <v>4.0199999999999996</v>
+        <v>4.03</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>870.78899999999999</v>
+        <v>811.77099999999996</v>
       </c>
       <c r="B49" s="1">
-        <v>732.36300000000006</v>
+        <v>727.51300000000003</v>
       </c>
       <c r="C49" s="1">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="D49" s="1">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>873.48800000000006</v>
+        <v>812.44899999999996</v>
       </c>
       <c r="B50" s="1">
-        <v>638.70000000000005</v>
+        <v>629.96100000000001</v>
       </c>
       <c r="C50" s="1">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="D50" s="1">
-        <v>8</v>
+        <v>7.97</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>876.96600000000001</v>
+        <v>813.70399999999995</v>
       </c>
       <c r="B51" s="1">
-        <v>541.32100000000003</v>
+        <v>531.59400000000005</v>
       </c>
       <c r="C51" s="1">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="D51" s="1">
-        <v>10.02</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>881.11699999999996</v>
+        <v>815.71500000000003</v>
       </c>
       <c r="B52" s="1">
-        <v>445.78699999999998</v>
+        <v>431.37200000000001</v>
       </c>
       <c r="C52" s="1">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="D52" s="1">
-        <v>12.02</v>
+        <v>11.97</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>885.79200000000003</v>
+        <v>818.17499999999995</v>
       </c>
       <c r="B53" s="1">
-        <v>347.721</v>
+        <v>329.97399999999999</v>
       </c>
       <c r="C53" s="1">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="D53" s="1">
-        <v>14.02</v>
+        <v>13.97</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>891.09100000000001</v>
+        <v>820.96100000000001</v>
       </c>
       <c r="B54" s="1">
-        <v>249.09399999999999</v>
+        <v>227.24100000000001</v>
       </c>
       <c r="C54" s="1">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="D54" s="1">
-        <v>16</v>
+        <v>15.97</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>851.30600000000004</v>
+        <v>797.09100000000001</v>
       </c>
       <c r="B55" s="1">
-        <v>1013.42</v>
+        <v>1013.4</v>
       </c>
       <c r="C55" s="1">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1182,43 +1182,43 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>869.88499999999999</v>
+        <v>825.77700000000004</v>
       </c>
       <c r="B56" s="1">
-        <v>1787.7049999999999</v>
+        <v>1792.04</v>
       </c>
       <c r="C56" s="1">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="D56" s="1">
-        <v>-15.98</v>
+        <v>-15.93</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>865.29600000000005</v>
+        <v>820.48400000000004</v>
       </c>
       <c r="B57" s="1">
-        <v>1688.105</v>
+        <v>1695.097</v>
       </c>
       <c r="C57" s="1">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="D57" s="1">
-        <v>-14.02</v>
+        <v>-14.03</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>861.26599999999996</v>
+        <v>815.48800000000006</v>
       </c>
       <c r="B58" s="1">
-        <v>1587.5650000000001</v>
+        <v>1593.556</v>
       </c>
       <c r="C58" s="1">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="D58" s="1">
         <v>-12</v>
@@ -1227,43 +1227,43 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>857.84799999999996</v>
+        <v>810.98800000000006</v>
       </c>
       <c r="B59" s="1">
-        <v>1490.2719999999999</v>
+        <v>1494.634</v>
       </c>
       <c r="C59" s="1">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="D59" s="1">
-        <v>-10.02</v>
+        <v>-10</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>855.29</v>
+        <v>807.01099999999997</v>
       </c>
       <c r="B60" s="1">
-        <v>1392.402</v>
+        <v>1397.8119999999999</v>
       </c>
       <c r="C60" s="1">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="D60" s="1">
-        <v>-8</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>853.30899999999997</v>
+        <v>803.53700000000003</v>
       </c>
       <c r="B61" s="1">
-        <v>1296.6389999999999</v>
+        <v>1300.518</v>
       </c>
       <c r="C61" s="1">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="D61" s="1">
         <v>-6</v>
@@ -1272,13 +1272,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>851.88900000000001</v>
+        <v>801.029</v>
       </c>
       <c r="B62" s="1">
-        <v>1201.96</v>
+        <v>1204.9059999999999</v>
       </c>
       <c r="C62" s="1">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="D62" s="1">
         <v>-4</v>
@@ -1287,58 +1287,58 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>851.02700000000004</v>
+        <v>798.79399999999998</v>
       </c>
       <c r="B63" s="1">
-        <v>1106.8579999999999</v>
+        <v>1109.3689999999999</v>
       </c>
       <c r="C63" s="1">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="D63" s="1">
-        <v>-1.97</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>851.327</v>
+        <v>797.13599999999997</v>
       </c>
       <c r="B64" s="1">
-        <v>1013.376</v>
+        <v>1012.7140000000001</v>
       </c>
       <c r="C64" s="1">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="D64" s="1">
-        <v>-0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>851.87900000000002</v>
+        <v>796.14300000000003</v>
       </c>
       <c r="B65" s="1">
-        <v>918.5</v>
+        <v>919.48599999999999</v>
       </c>
       <c r="C65" s="1">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="D65" s="1">
-        <v>2.0299999999999998</v>
+        <v>1.97</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>853.13900000000001</v>
+        <v>795.92200000000003</v>
       </c>
       <c r="B66" s="1">
-        <v>825.24</v>
+        <v>822.76400000000001</v>
       </c>
       <c r="C66" s="1">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="D66" s="1">
         <v>4.03</v>
@@ -1347,103 +1347,103 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>855.36699999999996</v>
+        <v>795.98299999999995</v>
       </c>
       <c r="B67" s="1">
-        <v>731.74699999999996</v>
+        <v>727.80499999999995</v>
       </c>
       <c r="C67" s="1">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="D67" s="1">
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>857.87400000000002</v>
+        <v>796.79600000000005</v>
       </c>
       <c r="B68" s="1">
-        <v>637.33799999999997</v>
+        <v>630.43299999999999</v>
       </c>
       <c r="C68" s="1">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="D68" s="1">
-        <v>8</v>
+        <v>7.97</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>861.29600000000005</v>
+        <v>797.899</v>
       </c>
       <c r="B69" s="1">
-        <v>540.84299999999996</v>
+        <v>531.70299999999997</v>
       </c>
       <c r="C69" s="1">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="D69" s="1">
-        <v>10.029999999999999</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>865.24900000000002</v>
+        <v>799.87</v>
       </c>
       <c r="B70" s="1">
-        <v>445.37799999999999</v>
+        <v>432.21199999999999</v>
       </c>
       <c r="C70" s="1">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="D70" s="1">
-        <v>12.03</v>
+        <v>11.97</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>869.61099999999999</v>
+        <v>801.67200000000003</v>
       </c>
       <c r="B71" s="1">
-        <v>348.52600000000001</v>
+        <v>330.72300000000001</v>
       </c>
       <c r="C71" s="1">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="D71" s="1">
-        <v>14</v>
+        <v>13.97</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>875.08699999999999</v>
+        <v>804.58100000000002</v>
       </c>
       <c r="B72" s="1">
-        <v>247.59299999999999</v>
+        <v>227.80799999999999</v>
       </c>
       <c r="C72" s="1">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="D72" s="1">
-        <v>16.03</v>
+        <v>15.97</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>836.81100000000004</v>
+        <v>782.77300000000002</v>
       </c>
       <c r="B73" s="1">
-        <v>1013.482</v>
+        <v>1013.245</v>
       </c>
       <c r="C73" s="1">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1452,58 +1452,58 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>854.81399999999996</v>
+        <v>810.86900000000003</v>
       </c>
       <c r="B74" s="1">
-        <v>1786.373</v>
+        <v>1791.2329999999999</v>
       </c>
       <c r="C74" s="1">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="D74" s="1">
-        <v>-15.95</v>
+        <v>-15.9</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>850.423</v>
+        <v>805.42</v>
       </c>
       <c r="B75" s="1">
-        <v>1688.587</v>
+        <v>1695.047</v>
       </c>
       <c r="C75" s="1">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="D75" s="1">
-        <v>-14.02</v>
+        <v>-14.05</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>846.64</v>
+        <v>800.47500000000002</v>
       </c>
       <c r="B76" s="1">
-        <v>1588.5550000000001</v>
+        <v>1592.788</v>
       </c>
       <c r="C76" s="1">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="D76" s="1">
-        <v>-12.02</v>
+        <v>-12</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>843.16700000000003</v>
+        <v>796.04300000000001</v>
       </c>
       <c r="B77" s="1">
-        <v>1489.6179999999999</v>
+        <v>1494.556</v>
       </c>
       <c r="C77" s="1">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="D77" s="1">
         <v>-10</v>
@@ -1512,73 +1512,73 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>840.51499999999999</v>
+        <v>792.41300000000001</v>
       </c>
       <c r="B78" s="1">
-        <v>1392.796</v>
+        <v>1397.809</v>
       </c>
       <c r="C78" s="1">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="D78" s="1">
-        <v>-8.02</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>838.64700000000005</v>
+        <v>789.15200000000004</v>
       </c>
       <c r="B79" s="1">
-        <v>1296.71</v>
+        <v>1300.067</v>
       </c>
       <c r="C79" s="1">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="D79" s="1">
-        <v>-5.97</v>
+        <v>-6</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>837.37199999999996</v>
+        <v>786.39</v>
       </c>
       <c r="B80" s="1">
-        <v>1202.6500000000001</v>
+        <v>1204.617</v>
       </c>
       <c r="C80" s="1">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="D80" s="1">
-        <v>-4.0199999999999996</v>
+        <v>-4</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>836.697</v>
+        <v>784.06700000000001</v>
       </c>
       <c r="B81" s="1">
-        <v>1106.8869999999999</v>
+        <v>1109.3989999999999</v>
       </c>
       <c r="C81" s="1">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="D81" s="1">
-        <v>-1.97</v>
+        <v>-2</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>836.947</v>
+        <v>782.84400000000005</v>
       </c>
       <c r="B82" s="1">
-        <v>1013.425</v>
+        <v>1014.194</v>
       </c>
       <c r="C82" s="1">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -1587,28 +1587,28 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>837.27499999999998</v>
+        <v>781.85599999999999</v>
       </c>
       <c r="B83" s="1">
-        <v>919.18100000000004</v>
+        <v>919.125</v>
       </c>
       <c r="C83" s="1">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="D83" s="1">
-        <v>2.0299999999999998</v>
+        <v>2</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>838.76</v>
+        <v>781.08799999999997</v>
       </c>
       <c r="B84" s="1">
-        <v>826.51300000000003</v>
+        <v>823.83</v>
       </c>
       <c r="C84" s="1">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="D84" s="1">
         <v>4</v>
@@ -1617,91 +1617,91 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>840.82600000000002</v>
+        <v>781.20100000000002</v>
       </c>
       <c r="B85" s="1">
-        <v>731.78899999999999</v>
+        <v>727.85900000000004</v>
       </c>
       <c r="C85" s="1">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="D85" s="1">
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>843.35599999999999</v>
+        <v>782.04600000000005</v>
       </c>
       <c r="B86" s="1">
-        <v>637.16700000000003</v>
+        <v>630.37699999999995</v>
       </c>
       <c r="C86" s="1">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="D86" s="1">
-        <v>8.0299999999999994</v>
+        <v>7.97</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>846.48599999999999</v>
+        <v>783.21400000000006</v>
       </c>
       <c r="B87" s="1">
-        <v>542.149</v>
+        <v>531.97</v>
       </c>
       <c r="C87" s="1">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="D87" s="1">
-        <v>10.029999999999999</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>850.36800000000005</v>
+        <v>784.92</v>
       </c>
       <c r="B88" s="1">
-        <v>446.53199999999998</v>
+        <v>432.52100000000002</v>
       </c>
       <c r="C88" s="1">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="D88" s="1">
-        <v>12</v>
+        <v>11.97</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>854.96</v>
+        <v>786.71199999999999</v>
       </c>
       <c r="B89" s="1">
-        <v>348.24200000000002</v>
+        <v>331.512</v>
       </c>
       <c r="C89" s="1">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="D89" s="1">
-        <v>14.03</v>
+        <v>13.97</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>859.94299999999998</v>
+        <v>789.45</v>
       </c>
       <c r="B90" s="1">
-        <v>250.12299999999999</v>
+        <v>228.29</v>
       </c>
       <c r="C90" s="1">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="D90" s="1">
-        <v>16</v>
+        <v>15.97</v>
       </c>
       <c r="E90" s="1"/>
     </row>
